--- a/_docs_readme/user_and_job-stories_v02.xlsx
+++ b/_docs_readme/user_and_job-stories_v02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FilipaGomes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FilipaGomes/Filipa_Ensino/PG_DXD/PayUp/06_prototipos/prototipo_app_invision/invision_backup_filipa/PayUp Mockups App/_docs_readme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD0B9572-5333-4E4F-ADF6-8491AE74E38D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6EA05A2F-024D-AF42-B7EB-7CB52E3264D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="PfAddtsxcvT8xaVZcc1lR6DHCBbNoIiqS/IOUZ7ek+SG84kPU/Q1KneAV2vqZLME5kHaHtcc2psjKjkHs7Blaw==" workbookSaltValue="29vO7kXUjtO+iMZgSEClXA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>Objectivos da aplicação:</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Como organizadora das despesas lá de casa (renda, água, luz e gás), quero reparti-las pelas minhas colegas de casa e angariar o capital necessário, de forma a manter as contas em dia e cumprir com os nossos compromissos atempadamente.</t>
   </si>
   <si>
-    <t>Quando crio um despesa de valor fixo que vai ser partilhada equitativamente, quero:</t>
-  </si>
-  <si>
     <t>criar um evento</t>
   </si>
   <si>
     <t xml:space="preserve">editar o evento                                                                                                                                                                                                </t>
   </si>
   <si>
-    <t xml:space="preserve">reabrir um evento                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">apagar um evento					</t>
-  </si>
-  <si>
     <t>adicionar uma despesa</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>caso o meu amigo não utilize a aplicação, quero enviar convite por sms</t>
   </si>
   <si>
-    <t>notificar os amigos que adicionei a esta despesa</t>
-  </si>
-  <si>
     <t>verificar quem já pagou a sua parte</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>editar a data limite e o valor atribuído à despesa</t>
   </si>
   <si>
-    <t>que todos o membros do grupo sejam alertados de alterações a que a despesa foi sujeita</t>
-  </si>
-  <si>
     <t>comunicar com os outros elementos do grupo</t>
   </si>
   <si>
@@ -194,18 +179,12 @@
     <t>verificar quem ainda não contribuiu</t>
   </si>
   <si>
-    <t>verificar o valor em tempo real o valor angariado / o valor que falta angariar</t>
-  </si>
-  <si>
     <t>receber notificações em tempo real de cada vez que alguém contribui</t>
   </si>
   <si>
     <t xml:space="preserve">fechar o evento </t>
   </si>
   <si>
-    <t>notificar todos os elementos do valor que angariado</t>
-  </si>
-  <si>
     <t>Funções transversais a todas as personas</t>
   </si>
   <si>
@@ -230,12 +209,6 @@
     <t>poder comunicar a quem devo caso me atrase no pagamento</t>
   </si>
   <si>
-    <t>Quando eu tenho uma conta, quero (funcionalidades transversais a todas as personas)</t>
-  </si>
-  <si>
-    <t>consultar histórico de movimentos</t>
-  </si>
-  <si>
     <t>exportar os movimentos num formato adequado</t>
   </si>
   <si>
@@ -278,10 +251,40 @@
     <t xml:space="preserve">editar a conta                                     </t>
   </si>
   <si>
-    <t>fazer login e associar este à minha conta bancária</t>
-  </si>
-  <si>
     <t>Aplicação que permite facilmente fazer transferências, pagar e cobrar dívidas, e gerir despesas partilhadas.</t>
+  </si>
+  <si>
+    <t>Quando crio uma despesa de valor fixo que vai ser partilhada equitativamente, quero:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reabrir o evento                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apagar o evento					</t>
+  </si>
+  <si>
+    <t>notificar os amigos que adicionei esta despesa</t>
+  </si>
+  <si>
+    <t>que todos o membros do grupo sejam alertados das alterações a que a despesa foi sujeita</t>
+  </si>
+  <si>
+    <t>apagar o evento</t>
+  </si>
+  <si>
+    <t>verificar em tempo real o valor angariado / o valor que falta angariar</t>
+  </si>
+  <si>
+    <t>notificar todos os elementos do valor angariado</t>
+  </si>
+  <si>
+    <t>Quando eu tenho uma conta PayUp, quero (funcionalidades transversais a todas as personas)</t>
+  </si>
+  <si>
+    <t>consultar o histórico de movimentos</t>
+  </si>
+  <si>
+    <t>fazer login e associa-lo à minha conta bancária</t>
   </si>
 </sst>
 </file>
@@ -363,28 +366,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +705,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -712,7 +715,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
@@ -723,8 +726,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>86</v>
+      <c r="A2" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -752,7 +755,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -764,7 +767,7 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7"/>
@@ -783,8 +786,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
+      <c r="A8" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -795,7 +798,7 @@
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -806,7 +809,7 @@
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -816,7 +819,7 @@
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="6" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -826,7 +829,7 @@
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -834,8 +837,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
-        <v>8</v>
+      <c r="B14" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -845,8 +848,8 @@
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="15" t="s">
-        <v>9</v>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -859,8 +862,8 @@
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="15" t="s">
-        <v>10</v>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -869,7 +872,7 @@
     </row>
     <row r="17" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -880,7 +883,7 @@
     <row r="18" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -890,7 +893,7 @@
     <row r="19" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -899,7 +902,7 @@
     </row>
     <row r="20" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -909,7 +912,7 @@
     </row>
     <row r="21" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -919,7 +922,7 @@
     </row>
     <row r="22" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -929,7 +932,7 @@
     </row>
     <row r="23" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -939,7 +942,7 @@
     </row>
     <row r="24" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -949,7 +952,7 @@
     </row>
     <row r="25" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -960,7 +963,7 @@
     <row r="26" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -969,7 +972,7 @@
     </row>
     <row r="27" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -979,7 +982,7 @@
     </row>
     <row r="28" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -989,7 +992,7 @@
     </row>
     <row r="29" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1000,7 +1003,7 @@
     <row r="30" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="31" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1026,11 +1029,11 @@
       <c r="G32" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>27</v>
+      <c r="A34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1066,8 +1069,8 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
+      <c r="A38" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1096,7 +1099,7 @@
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1107,7 +1110,7 @@
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1137,7 +1140,7 @@
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -1147,7 +1150,7 @@
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1167,7 +1170,7 @@
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1178,7 +1181,7 @@
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1189,7 +1192,7 @@
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1200,7 +1203,7 @@
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1211,7 +1214,7 @@
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1222,7 +1225,7 @@
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1232,8 +1235,8 @@
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="C56" s="14" t="s">
-        <v>39</v>
+      <c r="C56" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -1243,7 +1246,7 @@
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="C57" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -1253,7 +1256,7 @@
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="C58" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -1263,7 +1266,7 @@
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="C59" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -1273,7 +1276,7 @@
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -1284,7 +1287,7 @@
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -1295,7 +1298,7 @@
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -1322,11 +1325,11 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>47</v>
+      <c r="A65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -1362,8 +1365,8 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
-        <v>48</v>
+      <c r="A69" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1392,7 +1395,7 @@
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1401,8 +1404,8 @@
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C74" s="15" t="s">
-        <v>50</v>
+      <c r="C74" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C75" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="6" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1462,7 +1465,7 @@
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
       <c r="C80" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -1472,7 +1475,7 @@
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" s="3"/>
       <c r="C81" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C90" s="6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -1578,7 +1581,7 @@
     </row>
     <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1606,8 +1609,8 @@
       <c r="G95" s="7"/>
     </row>
     <row r="97" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="8" t="s">
-        <v>62</v>
+      <c r="A97" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1654,7 +1657,7 @@
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -1674,7 +1677,7 @@
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -1694,7 +1697,7 @@
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -1721,8 +1724,8 @@
       <c r="G108" s="5"/>
     </row>
     <row r="110" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="8" t="s">
-        <v>69</v>
+      <c r="A110" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -1761,7 +1764,7 @@
     </row>
     <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -1771,7 +1774,7 @@
     </row>
     <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -1824,7 +1827,7 @@
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -1865,7 +1868,7 @@
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -1877,7 +1880,7 @@
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -1889,7 +1892,7 @@
     <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -1901,7 +1904,7 @@
     <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -1913,7 +1916,7 @@
     <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2033,20 +2036,79 @@
       <c r="H141" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6UWlkOgCJSlOcvg8WQN/0mVuqUnXykEa7dDOZ94o5jJHmnVxsd0r4WUnmTGfHOdKaBY98DtpCYCi59hdFbm8rg==" saltValue="JsvqVfUvgDhCa0cqoP45cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wkXBXNjRKTPDopVWoLx/KVP35iMIk+0uLm3UXFxrMKQu4FglzPYMr/rIn/YWGlY2d0D8gymMaDgUx4oh8Z6HJg==" saltValue="TbvaDocE83jqaJU8/ErwBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="99">
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="A97:G99"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="A110:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A2:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A93:G95"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B65:G67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A69:G71"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="A38:G40"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="B87:G87"/>
@@ -2063,77 +2125,18 @@
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="C74:G74"/>
     <mergeCell ref="B82:G82"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="A38:G40"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="A93:G95"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B65:G67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A69:G71"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A2:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="A110:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="A97:G99"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B54:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
